--- a/Implementation/Python/experiment5EF1.xlsx
+++ b/Implementation/Python/experiment5EF1.xlsx
@@ -530,97 +530,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50</v>
+        <v>0.1</v>
       </c>
       <c r="B2" t="n">
-        <v>55.00000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>0.12</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>0.13</v>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>0.14</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>0.15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>0.16</v>
       </c>
       <c r="H2" t="n">
-        <v>85</v>
+        <v>0.17</v>
       </c>
       <c r="I2" t="n">
-        <v>90</v>
+        <v>0.18</v>
       </c>
       <c r="J2" t="n">
-        <v>95</v>
+        <v>0.19</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>0.2</v>
       </c>
       <c r="L2" t="n">
-        <v>105</v>
+        <v>0.21</v>
       </c>
       <c r="M2" t="n">
-        <v>110</v>
+        <v>0.22</v>
       </c>
       <c r="N2" t="n">
-        <v>115</v>
+        <v>0.23</v>
       </c>
       <c r="O2" t="n">
-        <v>120</v>
+        <v>0.24</v>
       </c>
       <c r="P2" t="n">
-        <v>125</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>130</v>
+        <v>0.26</v>
       </c>
       <c r="R2" t="n">
-        <v>135</v>
+        <v>0.27</v>
       </c>
       <c r="S2" t="n">
-        <v>140</v>
+        <v>0.28</v>
       </c>
       <c r="T2" t="n">
-        <v>145</v>
+        <v>0.29</v>
       </c>
       <c r="U2" t="n">
-        <v>150</v>
+        <v>0.3</v>
       </c>
       <c r="V2" t="n">
-        <v>155</v>
+        <v>0.31</v>
       </c>
       <c r="W2" t="n">
-        <v>160</v>
+        <v>0.32</v>
       </c>
       <c r="X2" t="n">
-        <v>165</v>
+        <v>0.33</v>
       </c>
       <c r="Y2" t="n">
-        <v>170</v>
+        <v>0.34</v>
       </c>
       <c r="Z2" t="n">
-        <v>175</v>
+        <v>0.35</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>0.36</v>
       </c>
       <c r="AB2" t="n">
-        <v>185</v>
+        <v>0.37</v>
       </c>
       <c r="AC2" t="n">
-        <v>190</v>
+        <v>0.38</v>
       </c>
       <c r="AD2" t="n">
-        <v>195</v>
+        <v>0.39</v>
       </c>
       <c r="AE2" t="n">
-        <v>200</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -640,82 +640,82 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>94.73689162452376</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>94.19054761862303</v>
       </c>
       <c r="H3" t="n">
-        <v>93.52422781715542</v>
+        <v>94.76254794359178</v>
       </c>
       <c r="I3" t="n">
-        <v>90.61151056179368</v>
+        <v>94.01680108448323</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>94.0637406846556</v>
       </c>
       <c r="K3" t="n">
-        <v>94.38658794805617</v>
+        <v>97.88381961431726</v>
       </c>
       <c r="L3" t="n">
-        <v>100</v>
+        <v>97.59137567251499</v>
       </c>
       <c r="M3" t="n">
-        <v>92.96634794767959</v>
+        <v>98.41094817062589</v>
       </c>
       <c r="N3" t="n">
-        <v>100</v>
+        <v>98.11382104240238</v>
       </c>
       <c r="O3" t="n">
-        <v>100</v>
+        <v>98.0639858691392</v>
       </c>
       <c r="P3" t="n">
-        <v>95.03978279421386</v>
+        <v>97.81685273051005</v>
       </c>
       <c r="Q3" t="n">
-        <v>100</v>
+        <v>98.13388765086219</v>
       </c>
       <c r="R3" t="n">
-        <v>100</v>
+        <v>98.61559256721084</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>98.30671174479917</v>
       </c>
       <c r="T3" t="n">
-        <v>94.77849061021863</v>
+        <v>97.9343277762044</v>
       </c>
       <c r="U3" t="n">
-        <v>100</v>
+        <v>99.34600107020628</v>
       </c>
       <c r="V3" t="n">
-        <v>100</v>
+        <v>99.39260626701855</v>
       </c>
       <c r="W3" t="n">
-        <v>100</v>
+        <v>99.25869252957401</v>
       </c>
       <c r="X3" t="n">
-        <v>100</v>
+        <v>99.12856132066902</v>
       </c>
       <c r="Y3" t="n">
-        <v>100</v>
+        <v>99.37913512813586</v>
       </c>
       <c r="Z3" t="n">
-        <v>100</v>
+        <v>99.38504435119819</v>
       </c>
       <c r="AA3" t="n">
-        <v>100</v>
+        <v>99.13474380726615</v>
       </c>
       <c r="AB3" t="n">
-        <v>100</v>
+        <v>99.23997012228305</v>
       </c>
       <c r="AC3" t="n">
-        <v>100</v>
+        <v>99.14895502165525</v>
       </c>
       <c r="AD3" t="n">
-        <v>90.32823694015684</v>
+        <v>99.21825166200968</v>
       </c>
       <c r="AE3" t="n">
-        <v>100</v>
+        <v>99.69180861810891</v>
       </c>
     </row>
     <row r="4">
@@ -732,85 +732,85 @@
         <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>93.72458889207333</v>
       </c>
       <c r="F4" t="n">
-        <v>98.03163580157717</v>
+        <v>94.01869907373012</v>
       </c>
       <c r="G4" t="n">
-        <v>98.20047391314195</v>
+        <v>94.00135449774136</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>92.95586381892933</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>92.88263464108032</v>
       </c>
       <c r="J4" t="n">
-        <v>87.86283732872511</v>
+        <v>92.02477257364281</v>
       </c>
       <c r="K4" t="n">
-        <v>100</v>
+        <v>97.64137803945189</v>
       </c>
       <c r="L4" t="n">
-        <v>100</v>
+        <v>97.58933864757348</v>
       </c>
       <c r="M4" t="n">
-        <v>84.18557564095951</v>
+        <v>97.96959373605024</v>
       </c>
       <c r="N4" t="n">
-        <v>100</v>
+        <v>97.81218691024691</v>
       </c>
       <c r="O4" t="n">
-        <v>100</v>
+        <v>97.74034253593979</v>
       </c>
       <c r="P4" t="n">
-        <v>100</v>
+        <v>97.81464560807946</v>
       </c>
       <c r="Q4" t="n">
-        <v>100</v>
+        <v>97.81882727964522</v>
       </c>
       <c r="R4" t="n">
-        <v>94.08540491893578</v>
+        <v>97.75064991369288</v>
       </c>
       <c r="S4" t="n">
-        <v>97.63712387221784</v>
+        <v>97.93019159227543</v>
       </c>
       <c r="T4" t="n">
-        <v>100</v>
+        <v>97.95037628028861</v>
       </c>
       <c r="U4" t="n">
-        <v>100</v>
+        <v>99.30118712413902</v>
       </c>
       <c r="V4" t="n">
-        <v>100</v>
+        <v>99.32785845588054</v>
       </c>
       <c r="W4" t="n">
-        <v>100</v>
+        <v>99.41405568211852</v>
       </c>
       <c r="X4" t="n">
-        <v>100</v>
+        <v>99.31306918434527</v>
       </c>
       <c r="Y4" t="n">
-        <v>100</v>
+        <v>99.21291841179917</v>
       </c>
       <c r="Z4" t="n">
-        <v>97.88123867014207</v>
+        <v>99.44729078628225</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.36676430918348</v>
+        <v>99.31022040358513</v>
       </c>
       <c r="AB4" t="n">
-        <v>100</v>
+        <v>99.47409359748779</v>
       </c>
       <c r="AC4" t="n">
-        <v>100</v>
+        <v>99.37681611968827</v>
       </c>
       <c r="AD4" t="n">
-        <v>100</v>
+        <v>99.29652556476606</v>
       </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>99.84377886631222</v>
       </c>
     </row>
     <row r="5">
@@ -824,88 +824,88 @@
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>89.75648732690398</v>
+        <v>94.39537455019847</v>
       </c>
       <c r="E5" t="n">
-        <v>97.55465676367685</v>
+        <v>94.3908920957046</v>
       </c>
       <c r="F5" t="n">
-        <v>88.52860237806399</v>
+        <v>91.45382834079585</v>
       </c>
       <c r="G5" t="n">
-        <v>91.42713507603371</v>
+        <v>91.13685047254077</v>
       </c>
       <c r="H5" t="n">
-        <v>78.03926065268308</v>
+        <v>91.42449396967315</v>
       </c>
       <c r="I5" t="n">
-        <v>90.37668932431966</v>
+        <v>92.07952379782746</v>
       </c>
       <c r="J5" t="n">
-        <v>93.72283986772251</v>
+        <v>92.39422649921272</v>
       </c>
       <c r="K5" t="n">
-        <v>100</v>
+        <v>98.24540853954463</v>
       </c>
       <c r="L5" t="n">
-        <v>100</v>
+        <v>98.04586984697514</v>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>98.20230744153761</v>
       </c>
       <c r="N5" t="n">
-        <v>100</v>
+        <v>98.34591600486236</v>
       </c>
       <c r="O5" t="n">
-        <v>97.1862707398701</v>
+        <v>98.23368163724557</v>
       </c>
       <c r="P5" t="n">
-        <v>100</v>
+        <v>97.68725285175111</v>
       </c>
       <c r="Q5" t="n">
-        <v>100</v>
+        <v>97.6207056767894</v>
       </c>
       <c r="R5" t="n">
-        <v>95.3206874911323</v>
+        <v>97.80475272222638</v>
       </c>
       <c r="S5" t="n">
-        <v>84.01059869945048</v>
+        <v>98.06730369970171</v>
       </c>
       <c r="T5" t="n">
-        <v>100</v>
+        <v>98.05139410734473</v>
       </c>
       <c r="U5" t="n">
-        <v>100</v>
+        <v>99.65076527976306</v>
       </c>
       <c r="V5" t="n">
-        <v>100</v>
+        <v>99.57151308317617</v>
       </c>
       <c r="W5" t="n">
-        <v>100</v>
+        <v>99.61032352427893</v>
       </c>
       <c r="X5" t="n">
-        <v>98.06009832325657</v>
+        <v>99.36801175534011</v>
       </c>
       <c r="Y5" t="n">
-        <v>100</v>
+        <v>99.42540400870861</v>
       </c>
       <c r="Z5" t="n">
-        <v>100</v>
+        <v>99.45257382965458</v>
       </c>
       <c r="AA5" t="n">
-        <v>100</v>
+        <v>99.50181864187408</v>
       </c>
       <c r="AB5" t="n">
-        <v>100</v>
+        <v>99.42304054642723</v>
       </c>
       <c r="AC5" t="n">
-        <v>100</v>
+        <v>99.70515891880397</v>
       </c>
       <c r="AD5" t="n">
-        <v>100</v>
+        <v>99.63582196619051</v>
       </c>
       <c r="AE5" t="n">
-        <v>100</v>
+        <v>99.91765868446659</v>
       </c>
     </row>
     <row r="6">
@@ -916,91 +916,91 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>98.99181114789332</v>
+        <v>95.01501531844555</v>
       </c>
       <c r="D6" t="n">
-        <v>89.71737042382431</v>
+        <v>94.84565598923145</v>
       </c>
       <c r="E6" t="n">
-        <v>88.26831209399782</v>
+        <v>91.58039467688815</v>
       </c>
       <c r="F6" t="n">
-        <v>86.78236363044891</v>
+        <v>91.35509927838024</v>
       </c>
       <c r="G6" t="n">
-        <v>93.96886349522291</v>
+        <v>89.87656967230274</v>
       </c>
       <c r="H6" t="n">
-        <v>83.78444598447547</v>
+        <v>90.81395488850114</v>
       </c>
       <c r="I6" t="n">
-        <v>100</v>
+        <v>92.59173008427118</v>
       </c>
       <c r="J6" t="n">
-        <v>92.59719330389828</v>
+        <v>91.97589896832983</v>
       </c>
       <c r="K6" t="n">
-        <v>100</v>
+        <v>98.51497102570825</v>
       </c>
       <c r="L6" t="n">
-        <v>100</v>
+        <v>98.64375835603124</v>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>98.23418757297367</v>
       </c>
       <c r="N6" t="n">
-        <v>100</v>
+        <v>98.33470739732137</v>
       </c>
       <c r="O6" t="n">
-        <v>100</v>
+        <v>97.67467857640102</v>
       </c>
       <c r="P6" t="n">
-        <v>94.4537923489037</v>
+        <v>97.77397261704346</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>97.93280356322856</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>97.74156065695585</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>98.43498451767717</v>
       </c>
       <c r="T6" t="n">
-        <v>97.34804042547101</v>
+        <v>98.44749215453572</v>
       </c>
       <c r="U6" t="n">
-        <v>100</v>
+        <v>99.65085492275864</v>
       </c>
       <c r="V6" t="n">
-        <v>100</v>
+        <v>99.78504499343632</v>
       </c>
       <c r="W6" t="n">
-        <v>100</v>
+        <v>99.66919826502941</v>
       </c>
       <c r="X6" t="n">
-        <v>100</v>
+        <v>99.57640718312668</v>
       </c>
       <c r="Y6" t="n">
-        <v>98.27823641652532</v>
+        <v>99.56532732559353</v>
       </c>
       <c r="Z6" t="n">
-        <v>100</v>
+        <v>99.51751951347926</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.13020646966606</v>
+        <v>99.67017429328126</v>
       </c>
       <c r="AB6" t="n">
-        <v>100</v>
+        <v>99.68489210849111</v>
       </c>
       <c r="AC6" t="n">
-        <v>100</v>
+        <v>99.73457196832479</v>
       </c>
       <c r="AD6" t="n">
-        <v>100</v>
+        <v>99.74042109118245</v>
       </c>
       <c r="AE6" t="n">
-        <v>100</v>
+        <v>99.95190156843076</v>
       </c>
     </row>
     <row r="7">
@@ -1011,91 +1011,91 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>95.83673422468718</v>
+        <v>95.58800214036251</v>
       </c>
       <c r="D7" t="n">
-        <v>90.3981138791427</v>
+        <v>95.5391978376085</v>
       </c>
       <c r="E7" t="n">
-        <v>88.82018206866655</v>
+        <v>91.92518965833837</v>
       </c>
       <c r="F7" t="n">
-        <v>91.62067025590834</v>
+        <v>89.74231367618272</v>
       </c>
       <c r="G7" t="n">
-        <v>89.28482705484271</v>
+        <v>89.46739945230939</v>
       </c>
       <c r="H7" t="n">
-        <v>84.46358177711765</v>
+        <v>89.92055015609881</v>
       </c>
       <c r="I7" t="n">
-        <v>89.39453252351447</v>
+        <v>90.1108796494385</v>
       </c>
       <c r="J7" t="n">
-        <v>96.39359519145655</v>
+        <v>92.38117143941949</v>
       </c>
       <c r="K7" t="n">
-        <v>90.00129801451553</v>
+        <v>98.94249057865468</v>
       </c>
       <c r="L7" t="n">
-        <v>100</v>
+        <v>99.01900826317093</v>
       </c>
       <c r="M7" t="n">
-        <v>97.07290758604155</v>
+        <v>98.60603741247077</v>
       </c>
       <c r="N7" t="n">
-        <v>99.62720238548924</v>
+        <v>98.59254295299615</v>
       </c>
       <c r="O7" t="n">
-        <v>100</v>
+        <v>97.94635975692579</v>
       </c>
       <c r="P7" t="n">
-        <v>100</v>
+        <v>97.70937666737863</v>
       </c>
       <c r="Q7" t="n">
-        <v>95.63331379391346</v>
+        <v>97.82836050653847</v>
       </c>
       <c r="R7" t="n">
-        <v>100</v>
+        <v>98.01495893116009</v>
       </c>
       <c r="S7" t="n">
-        <v>100</v>
+        <v>98.15223475000737</v>
       </c>
       <c r="T7" t="n">
-        <v>98.18580270601302</v>
+        <v>98.76904943738529</v>
       </c>
       <c r="U7" t="n">
-        <v>100</v>
+        <v>99.85018596079684</v>
       </c>
       <c r="V7" t="n">
-        <v>100</v>
+        <v>99.80479372396758</v>
       </c>
       <c r="W7" t="n">
-        <v>100</v>
+        <v>99.69695097401615</v>
       </c>
       <c r="X7" t="n">
-        <v>98.12971148367737</v>
+        <v>99.67864428468071</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.88248580053956</v>
+        <v>99.71036226709859</v>
       </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>99.65258195325104</v>
       </c>
       <c r="AA7" t="n">
-        <v>100</v>
+        <v>99.71467472176312</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.57760340353823</v>
+        <v>99.7984382752657</v>
       </c>
       <c r="AC7" t="n">
-        <v>100</v>
+        <v>99.73014439171503</v>
       </c>
       <c r="AD7" t="n">
-        <v>100</v>
+        <v>99.84698179935701</v>
       </c>
       <c r="AE7" t="n">
-        <v>100</v>
+        <v>99.98683225526783</v>
       </c>
     </row>
     <row r="8">
@@ -1106,91 +1106,91 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>93.87748792523327</v>
+        <v>95.99502324687089</v>
       </c>
       <c r="D8" t="n">
-        <v>87.77474171875454</v>
+        <v>92.3513235168349</v>
       </c>
       <c r="E8" t="n">
-        <v>92.91501562925382</v>
+        <v>92.4165791941884</v>
       </c>
       <c r="F8" t="n">
-        <v>89.88230071624336</v>
+        <v>90.05124204406339</v>
       </c>
       <c r="G8" t="n">
-        <v>71.34180265944335</v>
+        <v>89.31185127383308</v>
       </c>
       <c r="H8" t="n">
-        <v>88.82301990899344</v>
+        <v>89.30360460873023</v>
       </c>
       <c r="I8" t="n">
-        <v>94.50807917052524</v>
+        <v>90.07640555590267</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>92.9293738234766</v>
       </c>
       <c r="K8" t="n">
-        <v>100</v>
+        <v>99.00156765974226</v>
       </c>
       <c r="L8" t="n">
-        <v>100</v>
+        <v>98.95082560075646</v>
       </c>
       <c r="M8" t="n">
-        <v>99.81372034692751</v>
+        <v>98.7806158879134</v>
       </c>
       <c r="N8" t="n">
-        <v>99.30101785153522</v>
+        <v>98.15588200656728</v>
       </c>
       <c r="O8" t="n">
-        <v>98.9838503094566</v>
+        <v>98.25438277209254</v>
       </c>
       <c r="P8" t="n">
-        <v>100</v>
+        <v>98.00876680854829</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.11923742647133</v>
+        <v>98.00691382886852</v>
       </c>
       <c r="R8" t="n">
-        <v>97.46944745396016</v>
+        <v>98.0087498380916</v>
       </c>
       <c r="S8" t="n">
-        <v>100</v>
+        <v>98.39899356023808</v>
       </c>
       <c r="T8" t="n">
-        <v>100</v>
+        <v>98.96796517502435</v>
       </c>
       <c r="U8" t="n">
-        <v>100</v>
+        <v>99.89184752424698</v>
       </c>
       <c r="V8" t="n">
-        <v>100</v>
+        <v>99.87713656455568</v>
       </c>
       <c r="W8" t="n">
-        <v>100</v>
+        <v>99.80740339858765</v>
       </c>
       <c r="X8" t="n">
-        <v>100</v>
+        <v>99.75567321482511</v>
       </c>
       <c r="Y8" t="n">
-        <v>100</v>
+        <v>99.67488158152621</v>
       </c>
       <c r="Z8" t="n">
-        <v>99.99279884721813</v>
+        <v>99.76831307019978</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>99.76351826511929</v>
       </c>
       <c r="AB8" t="n">
-        <v>99.11889745539074</v>
+        <v>99.7733751301712</v>
       </c>
       <c r="AC8" t="n">
-        <v>100</v>
+        <v>99.80498319535323</v>
       </c>
       <c r="AD8" t="n">
-        <v>100</v>
+        <v>99.90860827504316</v>
       </c>
       <c r="AE8" t="n">
-        <v>100</v>
+        <v>99.98434669733489</v>
       </c>
     </row>
     <row r="9">
@@ -1201,91 +1201,91 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>95.95077828856662</v>
+        <v>96.36719797631609</v>
       </c>
       <c r="D9" t="n">
-        <v>87.47114442845871</v>
+        <v>93.00037391785852</v>
       </c>
       <c r="E9" t="n">
-        <v>92.37739915152829</v>
+        <v>90.40854760808664</v>
       </c>
       <c r="F9" t="n">
-        <v>87.1584735288106</v>
+        <v>89.13080991568</v>
       </c>
       <c r="G9" t="n">
-        <v>92.69503916562114</v>
+        <v>88.98595489331736</v>
       </c>
       <c r="H9" t="n">
-        <v>86.90907775058064</v>
+        <v>89.06542291252623</v>
       </c>
       <c r="I9" t="n">
-        <v>97.06077134771189</v>
+        <v>89.93512265908576</v>
       </c>
       <c r="J9" t="n">
-        <v>88.60544054843884</v>
+        <v>93.35448084470156</v>
       </c>
       <c r="K9" t="n">
-        <v>100</v>
+        <v>99.35251973016582</v>
       </c>
       <c r="L9" t="n">
-        <v>100</v>
+        <v>99.45433137532234</v>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>98.98979679921575</v>
       </c>
       <c r="N9" t="n">
-        <v>99.07725951902921</v>
+        <v>98.28582997308827</v>
       </c>
       <c r="O9" t="n">
-        <v>97.52066815885311</v>
+        <v>98.14642405138723</v>
       </c>
       <c r="P9" t="n">
-        <v>97.58616670057691</v>
+        <v>98.06855575205458</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.02145362809765</v>
+        <v>98.009358172753</v>
       </c>
       <c r="R9" t="n">
-        <v>98.11647644380621</v>
+        <v>98.24876007266663</v>
       </c>
       <c r="S9" t="n">
-        <v>97.70542300646488</v>
+        <v>98.63785672317607</v>
       </c>
       <c r="T9" t="n">
-        <v>100</v>
+        <v>99.2057158204403</v>
       </c>
       <c r="U9" t="n">
-        <v>100</v>
+        <v>99.89718357641829</v>
       </c>
       <c r="V9" t="n">
-        <v>100</v>
+        <v>99.8686603693107</v>
       </c>
       <c r="W9" t="n">
-        <v>100</v>
+        <v>99.7555834283158</v>
       </c>
       <c r="X9" t="n">
-        <v>100</v>
+        <v>99.79570899910604</v>
       </c>
       <c r="Y9" t="n">
-        <v>100</v>
+        <v>99.76372949524065</v>
       </c>
       <c r="Z9" t="n">
-        <v>96.51911255186936</v>
+        <v>99.77358090736547</v>
       </c>
       <c r="AA9" t="n">
-        <v>100</v>
+        <v>99.7757010797084</v>
       </c>
       <c r="AB9" t="n">
-        <v>100</v>
+        <v>99.79733363824201</v>
       </c>
       <c r="AC9" t="n">
-        <v>100</v>
+        <v>99.83067385357775</v>
       </c>
       <c r="AD9" t="n">
-        <v>100</v>
+        <v>99.90873392814716</v>
       </c>
       <c r="AE9" t="n">
-        <v>100</v>
+        <v>99.98183111904301</v>
       </c>
     </row>
     <row r="10">
@@ -1296,91 +1296,91 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>99.22930301070495</v>
+        <v>96.56116004086306</v>
       </c>
       <c r="D10" t="n">
-        <v>93.00139320083085</v>
+        <v>93.41130060298354</v>
       </c>
       <c r="E10" t="n">
-        <v>91.03373248839458</v>
+        <v>90.62499493190572</v>
       </c>
       <c r="F10" t="n">
-        <v>85.8722244622252</v>
+        <v>88.92412833129852</v>
       </c>
       <c r="G10" t="n">
-        <v>94.09285561512326</v>
+        <v>87.73279620654461</v>
       </c>
       <c r="H10" t="n">
-        <v>80.51184028999295</v>
+        <v>88.34734901996065</v>
       </c>
       <c r="I10" t="n">
-        <v>90.80986591567242</v>
+        <v>90.27145752300264</v>
       </c>
       <c r="J10" t="n">
-        <v>80.13486500682416</v>
+        <v>93.43668005648701</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>99.44101648240907</v>
       </c>
       <c r="L10" t="n">
-        <v>100</v>
+        <v>99.42279891955029</v>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>99.07915455367404</v>
       </c>
       <c r="N10" t="n">
-        <v>98.7137677210425</v>
+        <v>98.45939736208493</v>
       </c>
       <c r="O10" t="n">
-        <v>100</v>
+        <v>98.24685800755687</v>
       </c>
       <c r="P10" t="n">
-        <v>100</v>
+        <v>98.16017348666117</v>
       </c>
       <c r="Q10" t="n">
-        <v>96.48872771391828</v>
+        <v>98.16954383018425</v>
       </c>
       <c r="R10" t="n">
-        <v>99.88631542282074</v>
+        <v>98.3062736426793</v>
       </c>
       <c r="S10" t="n">
-        <v>100</v>
+        <v>98.75425711063245</v>
       </c>
       <c r="T10" t="n">
-        <v>95.4120757651725</v>
+        <v>99.2752737699108</v>
       </c>
       <c r="U10" t="n">
-        <v>100</v>
+        <v>99.9289481442612</v>
       </c>
       <c r="V10" t="n">
-        <v>100</v>
+        <v>99.92177078347802</v>
       </c>
       <c r="W10" t="n">
-        <v>98.55827729208254</v>
+        <v>99.81689974983479</v>
       </c>
       <c r="X10" t="n">
-        <v>100</v>
+        <v>99.78847976523791</v>
       </c>
       <c r="Y10" t="n">
-        <v>98.62333245714275</v>
+        <v>99.74654976266339</v>
       </c>
       <c r="Z10" t="n">
-        <v>100</v>
+        <v>99.78360702451677</v>
       </c>
       <c r="AA10" t="n">
-        <v>100</v>
+        <v>99.79939174240214</v>
       </c>
       <c r="AB10" t="n">
-        <v>100</v>
+        <v>99.87218686853824</v>
       </c>
       <c r="AC10" t="n">
-        <v>100</v>
+        <v>99.93120988128199</v>
       </c>
       <c r="AD10" t="n">
-        <v>100</v>
+        <v>99.92759550870855</v>
       </c>
       <c r="AE10" t="n">
-        <v>100</v>
+        <v>99.99470679009151</v>
       </c>
     </row>
     <row r="11">
@@ -1388,94 +1388,94 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>96.47160563956135</v>
+        <v>97.00752757112349</v>
       </c>
       <c r="C11" t="n">
-        <v>91.32814155931638</v>
+        <v>93.67854304423065</v>
       </c>
       <c r="D11" t="n">
-        <v>95.1643465799845</v>
+        <v>91.22078412694033</v>
       </c>
       <c r="E11" t="n">
-        <v>91.42132099896398</v>
+        <v>89.30336795910149</v>
       </c>
       <c r="F11" t="n">
-        <v>88.93985631376427</v>
+        <v>87.94456683626916</v>
       </c>
       <c r="G11" t="n">
-        <v>94.32395146407192</v>
+        <v>87.54332917320848</v>
       </c>
       <c r="H11" t="n">
-        <v>96.94539247121101</v>
+        <v>88.11016797092181</v>
       </c>
       <c r="I11" t="n">
-        <v>88.74065770522462</v>
+        <v>91.07684772846004</v>
       </c>
       <c r="J11" t="n">
-        <v>91.29750910492388</v>
+        <v>94.00986778228467</v>
       </c>
       <c r="K11" t="n">
-        <v>100</v>
+        <v>99.40873365880798</v>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>99.20372159281895</v>
       </c>
       <c r="M11" t="n">
-        <v>99.56143123890766</v>
+        <v>98.66989867841053</v>
       </c>
       <c r="N11" t="n">
-        <v>97.74135166721558</v>
+        <v>98.33619785645732</v>
       </c>
       <c r="O11" t="n">
-        <v>100</v>
+        <v>98.1608406875837</v>
       </c>
       <c r="P11" t="n">
-        <v>98.55947426690008</v>
+        <v>98.17065383830766</v>
       </c>
       <c r="Q11" t="n">
-        <v>100</v>
+        <v>98.41405319211289</v>
       </c>
       <c r="R11" t="n">
-        <v>96.961921554737</v>
+        <v>98.59829367604172</v>
       </c>
       <c r="S11" t="n">
-        <v>100</v>
+        <v>98.98010663826547</v>
       </c>
       <c r="T11" t="n">
-        <v>100</v>
+        <v>99.30655426706458</v>
       </c>
       <c r="U11" t="n">
-        <v>100</v>
+        <v>99.95231511896603</v>
       </c>
       <c r="V11" t="n">
-        <v>100</v>
+        <v>99.86859573598356</v>
       </c>
       <c r="W11" t="n">
-        <v>98.88819170780755</v>
+        <v>99.84796201812968</v>
       </c>
       <c r="X11" t="n">
-        <v>100</v>
+        <v>99.80434885209598</v>
       </c>
       <c r="Y11" t="n">
-        <v>100</v>
+        <v>99.8043835423376</v>
       </c>
       <c r="Z11" t="n">
-        <v>99.27417636664492</v>
+        <v>99.83693701851534</v>
       </c>
       <c r="AA11" t="n">
-        <v>100</v>
+        <v>99.83200955726507</v>
       </c>
       <c r="AB11" t="n">
-        <v>100</v>
+        <v>99.86188060376168</v>
       </c>
       <c r="AC11" t="n">
-        <v>100</v>
+        <v>99.89839237519267</v>
       </c>
       <c r="AD11" t="n">
-        <v>100</v>
+        <v>99.92973846516678</v>
       </c>
       <c r="AE11" t="n">
-        <v>100</v>
+        <v>99.99321683353608</v>
       </c>
     </row>
     <row r="12">
@@ -1483,94 +1483,94 @@
         <v>100</v>
       </c>
       <c r="B12" t="n">
-        <v>97.0083125669365</v>
+        <v>97.02452137008818</v>
       </c>
       <c r="C12" t="n">
-        <v>92.46294906883909</v>
+        <v>94.07846657576731</v>
       </c>
       <c r="D12" t="n">
-        <v>88.90581802363721</v>
+        <v>91.75068332802026</v>
       </c>
       <c r="E12" t="n">
-        <v>88.7450921444987</v>
+        <v>89.60146253148071</v>
       </c>
       <c r="F12" t="n">
-        <v>81.18762510223992</v>
+        <v>88.23554714171581</v>
       </c>
       <c r="G12" t="n">
-        <v>92.06432184106058</v>
+        <v>87.42082011339896</v>
       </c>
       <c r="H12" t="n">
-        <v>91.77165650140385</v>
+        <v>87.50888115992052</v>
       </c>
       <c r="I12" t="n">
-        <v>97.01736308826409</v>
+        <v>89.33278020329284</v>
       </c>
       <c r="J12" t="n">
-        <v>89.54870978998034</v>
+        <v>91.19626446907733</v>
       </c>
       <c r="K12" t="n">
-        <v>97.11333529551221</v>
+        <v>99.50498316444309</v>
       </c>
       <c r="L12" t="n">
-        <v>98.78263994151544</v>
+        <v>99.2826379034605</v>
       </c>
       <c r="M12" t="n">
-        <v>98.56727889509912</v>
+        <v>98.79139601985517</v>
       </c>
       <c r="N12" t="n">
-        <v>100</v>
+        <v>98.41967267012291</v>
       </c>
       <c r="O12" t="n">
-        <v>97.82503336467614</v>
+        <v>98.29344441946914</v>
       </c>
       <c r="P12" t="n">
-        <v>97.57420713578331</v>
+        <v>98.29715878739624</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.74538516019274</v>
+        <v>98.32641118975639</v>
       </c>
       <c r="R12" t="n">
-        <v>96.03107926266318</v>
+        <v>98.4646996203989</v>
       </c>
       <c r="S12" t="n">
-        <v>100</v>
+        <v>98.8185447985999</v>
       </c>
       <c r="T12" t="n">
-        <v>100</v>
+        <v>99.09921086031943</v>
       </c>
       <c r="U12" t="n">
-        <v>100</v>
+        <v>99.9403823805814</v>
       </c>
       <c r="V12" t="n">
-        <v>100</v>
+        <v>99.91223927622693</v>
       </c>
       <c r="W12" t="n">
-        <v>100</v>
+        <v>99.85513208510388</v>
       </c>
       <c r="X12" t="n">
-        <v>100</v>
+        <v>99.81832055244567</v>
       </c>
       <c r="Y12" t="n">
-        <v>100</v>
+        <v>99.8220098328466</v>
       </c>
       <c r="Z12" t="n">
-        <v>100</v>
+        <v>99.81299740538913</v>
       </c>
       <c r="AA12" t="n">
-        <v>100</v>
+        <v>99.79664427483084</v>
       </c>
       <c r="AB12" t="n">
-        <v>98.91607481507225</v>
+        <v>99.87716790282018</v>
       </c>
       <c r="AC12" t="n">
-        <v>100</v>
+        <v>99.89960112316142</v>
       </c>
       <c r="AD12" t="n">
-        <v>100</v>
+        <v>99.91695477810994</v>
       </c>
       <c r="AE12" t="n">
-        <v>100</v>
+        <v>99.99132864117723</v>
       </c>
     </row>
     <row r="13">
@@ -1578,94 +1578,94 @@
         <v>100</v>
       </c>
       <c r="B13" t="n">
-        <v>98.22409338382397</v>
+        <v>97.27515409691075</v>
       </c>
       <c r="C13" t="n">
-        <v>94.64662642146966</v>
+        <v>94.56638073273692</v>
       </c>
       <c r="D13" t="n">
-        <v>92.11455653662186</v>
+        <v>91.84398972952587</v>
       </c>
       <c r="E13" t="n">
-        <v>93.09199790554385</v>
+        <v>89.89392328391284</v>
       </c>
       <c r="F13" t="n">
-        <v>85.23692574303132</v>
+        <v>87.6643335946213</v>
       </c>
       <c r="G13" t="n">
-        <v>88.46285233678979</v>
+        <v>87.46925851974301</v>
       </c>
       <c r="H13" t="n">
-        <v>88.31863185961816</v>
+        <v>87.98117406067162</v>
       </c>
       <c r="I13" t="n">
-        <v>97.98180880842237</v>
+        <v>88.81474858470848</v>
       </c>
       <c r="J13" t="n">
-        <v>94.25957964528938</v>
+        <v>91.63848540314672</v>
       </c>
       <c r="K13" t="n">
-        <v>100</v>
+        <v>99.64290196677727</v>
       </c>
       <c r="L13" t="n">
-        <v>100</v>
+        <v>99.34079744247416</v>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>98.90081259447253</v>
       </c>
       <c r="N13" t="n">
-        <v>97.84010269889502</v>
+        <v>98.57778528706154</v>
       </c>
       <c r="O13" t="n">
-        <v>98.41491657744486</v>
+        <v>98.34503537447706</v>
       </c>
       <c r="P13" t="n">
-        <v>100</v>
+        <v>98.31248601309545</v>
       </c>
       <c r="Q13" t="n">
-        <v>100</v>
+        <v>98.41910568975059</v>
       </c>
       <c r="R13" t="n">
-        <v>100</v>
+        <v>98.55082567225952</v>
       </c>
       <c r="S13" t="n">
-        <v>100</v>
+        <v>98.9081061402858</v>
       </c>
       <c r="T13" t="n">
-        <v>96.92462890569431</v>
+        <v>99.25411208304911</v>
       </c>
       <c r="U13" t="n">
-        <v>100</v>
+        <v>99.97673794829245</v>
       </c>
       <c r="V13" t="n">
-        <v>100</v>
+        <v>99.89793572172451</v>
       </c>
       <c r="W13" t="n">
-        <v>100</v>
+        <v>99.84808441005545</v>
       </c>
       <c r="X13" t="n">
-        <v>98.96265056251289</v>
+        <v>99.83724104810115</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.21951376738687</v>
+        <v>99.84766274995718</v>
       </c>
       <c r="Z13" t="n">
-        <v>100</v>
+        <v>99.82611673832361</v>
       </c>
       <c r="AA13" t="n">
-        <v>100</v>
+        <v>99.85436749242523</v>
       </c>
       <c r="AB13" t="n">
-        <v>100</v>
+        <v>99.90354020189291</v>
       </c>
       <c r="AC13" t="n">
-        <v>100</v>
+        <v>99.90844953832992</v>
       </c>
       <c r="AD13" t="n">
-        <v>100</v>
+        <v>99.93845016397999</v>
       </c>
       <c r="AE13" t="n">
-        <v>100</v>
+        <v>99.99798211878974</v>
       </c>
     </row>
     <row r="14">
@@ -1673,94 +1673,94 @@
         <v>100</v>
       </c>
       <c r="B14" t="n">
-        <v>95.95270222334513</v>
+        <v>97.4773482896866</v>
       </c>
       <c r="C14" t="n">
-        <v>94.62121092545766</v>
+        <v>94.79230125700774</v>
       </c>
       <c r="D14" t="n">
-        <v>89.31192655560803</v>
+        <v>92.38885430122524</v>
       </c>
       <c r="E14" t="n">
-        <v>90.42815242689277</v>
+        <v>88.74650021195698</v>
       </c>
       <c r="F14" t="n">
-        <v>85.7948694295625</v>
+        <v>87.79929059272563</v>
       </c>
       <c r="G14" t="n">
-        <v>88.3949739834665</v>
+        <v>87.1693667531987</v>
       </c>
       <c r="H14" t="n">
-        <v>79.08778492648446</v>
+        <v>87.63793835878487</v>
       </c>
       <c r="I14" t="n">
-        <v>95.04180825024653</v>
+        <v>89.58961412911204</v>
       </c>
       <c r="J14" t="n">
-        <v>97.87696956235705</v>
+        <v>91.46521137948163</v>
       </c>
       <c r="K14" t="n">
-        <v>100</v>
+        <v>99.72304706318222</v>
       </c>
       <c r="L14" t="n">
-        <v>99.4493485334327</v>
+        <v>99.40100362290488</v>
       </c>
       <c r="M14" t="n">
-        <v>98.47375648079455</v>
+        <v>98.95707559127891</v>
       </c>
       <c r="N14" t="n">
-        <v>100</v>
+        <v>98.63326078501561</v>
       </c>
       <c r="O14" t="n">
-        <v>98.59792947204654</v>
+        <v>98.35330969512225</v>
       </c>
       <c r="P14" t="n">
-        <v>100</v>
+        <v>98.48440752211901</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.82740302545973</v>
+        <v>98.50139929463964</v>
       </c>
       <c r="R14" t="n">
-        <v>100</v>
+        <v>98.80563562239971</v>
       </c>
       <c r="S14" t="n">
-        <v>97.93631150982705</v>
+        <v>99.13606961609301</v>
       </c>
       <c r="T14" t="n">
-        <v>100</v>
+        <v>99.23321550919067</v>
       </c>
       <c r="U14" t="n">
-        <v>100</v>
+        <v>99.98139322959933</v>
       </c>
       <c r="V14" t="n">
-        <v>100</v>
+        <v>99.90872207313215</v>
       </c>
       <c r="W14" t="n">
-        <v>100</v>
+        <v>99.8677308676957</v>
       </c>
       <c r="X14" t="n">
-        <v>100</v>
+        <v>99.86341894221094</v>
       </c>
       <c r="Y14" t="n">
-        <v>100</v>
+        <v>99.86661940196136</v>
       </c>
       <c r="Z14" t="n">
-        <v>100</v>
+        <v>99.87077073273694</v>
       </c>
       <c r="AA14" t="n">
-        <v>100</v>
+        <v>99.90212615148639</v>
       </c>
       <c r="AB14" t="n">
-        <v>100</v>
+        <v>99.92518871990856</v>
       </c>
       <c r="AC14" t="n">
-        <v>100</v>
+        <v>99.92773310706868</v>
       </c>
       <c r="AD14" t="n">
-        <v>100</v>
+        <v>99.94954606664382</v>
       </c>
       <c r="AE14" t="n">
-        <v>100</v>
+        <v>99.99611894855612</v>
       </c>
     </row>
     <row r="15">
@@ -1768,91 +1768,91 @@
         <v>100</v>
       </c>
       <c r="B15" t="n">
-        <v>98.84815257727648</v>
+        <v>97.60819857757114</v>
       </c>
       <c r="C15" t="n">
-        <v>96.37561005819181</v>
+        <v>94.97233010726124</v>
       </c>
       <c r="D15" t="n">
-        <v>97.07304617672186</v>
+        <v>90.63465391408026</v>
       </c>
       <c r="E15" t="n">
-        <v>89.69252917957375</v>
+        <v>88.82087540890107</v>
       </c>
       <c r="F15" t="n">
-        <v>91.70014638976778</v>
+        <v>87.04342872067873</v>
       </c>
       <c r="G15" t="n">
-        <v>80.49057749241197</v>
+        <v>87.20459784142119</v>
       </c>
       <c r="H15" t="n">
-        <v>83.4497286092132</v>
+        <v>87.24042866318301</v>
       </c>
       <c r="I15" t="n">
-        <v>95.52738364445619</v>
+        <v>89.36724795699057</v>
       </c>
       <c r="J15" t="n">
-        <v>90.42030624102972</v>
+        <v>91.74014397002475</v>
       </c>
       <c r="K15" t="n">
-        <v>100</v>
+        <v>99.79966503420198</v>
       </c>
       <c r="L15" t="n">
-        <v>100</v>
+        <v>99.49220091299627</v>
       </c>
       <c r="M15" t="n">
-        <v>97.7441959132488</v>
+        <v>98.99637099869231</v>
       </c>
       <c r="N15" t="n">
-        <v>98.78723479981861</v>
+        <v>98.55984164865936</v>
       </c>
       <c r="O15" t="n">
-        <v>97.63107052986537</v>
+        <v>98.52173259678803</v>
       </c>
       <c r="P15" t="n">
-        <v>98.8412850270106</v>
+        <v>98.62007576438602</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.65392687268945</v>
+        <v>98.5304282090174</v>
       </c>
       <c r="R15" t="n">
-        <v>98.70309729790392</v>
+        <v>98.69140448738463</v>
       </c>
       <c r="S15" t="n">
-        <v>99.16950039985331</v>
+        <v>99.18376193016681</v>
       </c>
       <c r="T15" t="n">
-        <v>100</v>
+        <v>99.39235430937653</v>
       </c>
       <c r="U15" t="n">
-        <v>100</v>
+        <v>99.96988576026381</v>
       </c>
       <c r="V15" t="n">
-        <v>99.5566863151826</v>
+        <v>99.93579627548284</v>
       </c>
       <c r="W15" t="n">
-        <v>100</v>
+        <v>99.91009813091409</v>
       </c>
       <c r="X15" t="n">
-        <v>99.3143189057528</v>
+        <v>99.84922287307295</v>
       </c>
       <c r="Y15" t="n">
-        <v>100</v>
+        <v>99.84119353252693</v>
       </c>
       <c r="Z15" t="n">
-        <v>100</v>
+        <v>99.90240469283994</v>
       </c>
       <c r="AA15" t="n">
-        <v>100</v>
+        <v>99.90861898625964</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.15195394147123</v>
+        <v>99.91398747936489</v>
       </c>
       <c r="AC15" t="n">
-        <v>100</v>
+        <v>99.93151219269048</v>
       </c>
       <c r="AD15" t="n">
-        <v>100</v>
+        <v>99.96017554658989</v>
       </c>
       <c r="AE15" t="n">
         <v>100</v>
@@ -1863,91 +1863,91 @@
         <v>100</v>
       </c>
       <c r="B16" t="n">
-        <v>96.40351505040307</v>
+        <v>97.77782206108313</v>
       </c>
       <c r="C16" t="n">
-        <v>96.15483598710888</v>
+        <v>92.98994465106075</v>
       </c>
       <c r="D16" t="n">
-        <v>90.88461653567525</v>
+        <v>90.92963865349859</v>
       </c>
       <c r="E16" t="n">
-        <v>83.75606585940535</v>
+        <v>88.08365455373584</v>
       </c>
       <c r="F16" t="n">
-        <v>87.96265236035671</v>
+        <v>87.3229220652902</v>
       </c>
       <c r="G16" t="n">
-        <v>85.02905493047182</v>
+        <v>87.24253254703147</v>
       </c>
       <c r="H16" t="n">
-        <v>90.5398918085879</v>
+        <v>87.48802935895476</v>
       </c>
       <c r="I16" t="n">
-        <v>90.134871069406</v>
+        <v>89.95950734764187</v>
       </c>
       <c r="J16" t="n">
-        <v>85.82333938299288</v>
+        <v>92.09990367465541</v>
       </c>
       <c r="K16" t="n">
-        <v>100</v>
+        <v>99.69769241627506</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>99.51252308633737</v>
       </c>
       <c r="M16" t="n">
-        <v>98.80261659247242</v>
+        <v>98.76938880796115</v>
       </c>
       <c r="N16" t="n">
-        <v>95.97657576646934</v>
+        <v>98.52900079126327</v>
       </c>
       <c r="O16" t="n">
-        <v>99.0147470355714</v>
+        <v>98.48310163054664</v>
       </c>
       <c r="P16" t="n">
-        <v>95.94150527428664</v>
+        <v>98.46532099085628</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.20938423102982</v>
+        <v>98.5934445893847</v>
       </c>
       <c r="R16" t="n">
-        <v>96.33261711038146</v>
+        <v>98.86242249753782</v>
       </c>
       <c r="S16" t="n">
-        <v>99.31188031310623</v>
+        <v>99.16902621351817</v>
       </c>
       <c r="T16" t="n">
-        <v>100</v>
+        <v>99.48737625838973</v>
       </c>
       <c r="U16" t="n">
-        <v>100</v>
+        <v>99.98186704959603</v>
       </c>
       <c r="V16" t="n">
-        <v>100</v>
+        <v>99.92836659411921</v>
       </c>
       <c r="W16" t="n">
-        <v>100</v>
+        <v>99.8799860223902</v>
       </c>
       <c r="X16" t="n">
-        <v>100</v>
+        <v>99.86738084946938</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.19787339050711</v>
+        <v>99.87462024639572</v>
       </c>
       <c r="Z16" t="n">
-        <v>99.21450726761938</v>
+        <v>99.87173865010568</v>
       </c>
       <c r="AA16" t="n">
-        <v>100</v>
+        <v>99.88492120920708</v>
       </c>
       <c r="AB16" t="n">
-        <v>100</v>
+        <v>99.90998669630862</v>
       </c>
       <c r="AC16" t="n">
-        <v>100</v>
+        <v>99.94982509463169</v>
       </c>
       <c r="AD16" t="n">
-        <v>100</v>
+        <v>99.97064519412493</v>
       </c>
       <c r="AE16" t="n">
         <v>100</v>
@@ -1958,94 +1958,94 @@
         <v>100</v>
       </c>
       <c r="B17" t="n">
-        <v>98.61697811915731</v>
+        <v>97.91185142822211</v>
       </c>
       <c r="C17" t="n">
-        <v>94.56673719280306</v>
+        <v>93.25469384237657</v>
       </c>
       <c r="D17" t="n">
-        <v>89.92911799749075</v>
+        <v>91.47163443677171</v>
       </c>
       <c r="E17" t="n">
-        <v>84.76243086940521</v>
+        <v>88.36153394265288</v>
       </c>
       <c r="F17" t="n">
-        <v>79.80342295749547</v>
+        <v>86.71084852303356</v>
       </c>
       <c r="G17" t="n">
-        <v>84.32001157421516</v>
+        <v>86.47273355935019</v>
       </c>
       <c r="H17" t="n">
-        <v>91.1988708631237</v>
+        <v>87.42785644406815</v>
       </c>
       <c r="I17" t="n">
-        <v>93.17232088859423</v>
+        <v>88.84914257636441</v>
       </c>
       <c r="J17" t="n">
-        <v>90.78937727532693</v>
+        <v>92.82668483010882</v>
       </c>
       <c r="K17" t="n">
-        <v>100</v>
+        <v>99.8106140792847</v>
       </c>
       <c r="L17" t="n">
-        <v>100</v>
+        <v>99.47828052864521</v>
       </c>
       <c r="M17" t="n">
-        <v>98.28156480813338</v>
+        <v>98.89495412471189</v>
       </c>
       <c r="N17" t="n">
-        <v>99.06209883765214</v>
+        <v>98.73405921575713</v>
       </c>
       <c r="O17" t="n">
-        <v>98.89000986764485</v>
+        <v>98.6258777672512</v>
       </c>
       <c r="P17" t="n">
-        <v>100</v>
+        <v>98.5978910146091</v>
       </c>
       <c r="Q17" t="n">
-        <v>100</v>
+        <v>98.68191500693989</v>
       </c>
       <c r="R17" t="n">
-        <v>100</v>
+        <v>98.90106183339827</v>
       </c>
       <c r="S17" t="n">
-        <v>98.8943881046054</v>
+        <v>98.99946300910004</v>
       </c>
       <c r="T17" t="n">
-        <v>100</v>
+        <v>99.53995810902093</v>
       </c>
       <c r="U17" t="n">
-        <v>100</v>
+        <v>99.98399870083439</v>
       </c>
       <c r="V17" t="n">
-        <v>100</v>
+        <v>99.93811722071541</v>
       </c>
       <c r="W17" t="n">
-        <v>100</v>
+        <v>99.8731162439947</v>
       </c>
       <c r="X17" t="n">
-        <v>100</v>
+        <v>99.88117715344598</v>
       </c>
       <c r="Y17" t="n">
-        <v>100</v>
+        <v>99.90086061902228</v>
       </c>
       <c r="Z17" t="n">
-        <v>100</v>
+        <v>99.89812096009294</v>
       </c>
       <c r="AA17" t="n">
-        <v>100</v>
+        <v>99.90376753345677</v>
       </c>
       <c r="AB17" t="n">
-        <v>100</v>
+        <v>99.93281341312337</v>
       </c>
       <c r="AC17" t="n">
-        <v>100</v>
+        <v>99.96171552880791</v>
       </c>
       <c r="AD17" t="n">
-        <v>100</v>
+        <v>99.97164848748</v>
       </c>
       <c r="AE17" t="n">
-        <v>100</v>
+        <v>99.99834939982516</v>
       </c>
     </row>
     <row r="18">
@@ -2053,91 +2053,91 @@
         <v>100</v>
       </c>
       <c r="B18" t="n">
-        <v>96.33164441579078</v>
+        <v>97.93369557502233</v>
       </c>
       <c r="C18" t="n">
-        <v>96.97334778729217</v>
+        <v>93.61980884359475</v>
       </c>
       <c r="D18" t="n">
-        <v>97.0985283874825</v>
+        <v>89.80763135050111</v>
       </c>
       <c r="E18" t="n">
-        <v>93.25810525283424</v>
+        <v>88.77518073518034</v>
       </c>
       <c r="F18" t="n">
-        <v>96.06604497804595</v>
+        <v>86.5004359044889</v>
       </c>
       <c r="G18" t="n">
-        <v>95.49255815673273</v>
+        <v>86.29283374540084</v>
       </c>
       <c r="H18" t="n">
-        <v>86.76703754531239</v>
+        <v>86.6889159368646</v>
       </c>
       <c r="I18" t="n">
-        <v>82.67712746551668</v>
+        <v>88.53935600240362</v>
       </c>
       <c r="J18" t="n">
-        <v>98.82349939160595</v>
+        <v>92.80938820662509</v>
       </c>
       <c r="K18" t="n">
-        <v>100</v>
+        <v>99.75465314782073</v>
       </c>
       <c r="L18" t="n">
-        <v>100</v>
+        <v>99.55544148590268</v>
       </c>
       <c r="M18" t="n">
-        <v>98.9418851723585</v>
+        <v>98.97093438381164</v>
       </c>
       <c r="N18" t="n">
-        <v>97.30259807716257</v>
+        <v>98.68091159855526</v>
       </c>
       <c r="O18" t="n">
-        <v>99.22545996281816</v>
+        <v>98.53675294711128</v>
       </c>
       <c r="P18" t="n">
-        <v>97.93995517468139</v>
+        <v>98.56604815021576</v>
       </c>
       <c r="Q18" t="n">
-        <v>100</v>
+        <v>98.76935860899655</v>
       </c>
       <c r="R18" t="n">
-        <v>100</v>
+        <v>98.9145831009386</v>
       </c>
       <c r="S18" t="n">
-        <v>97.98183524341707</v>
+        <v>99.16607827854601</v>
       </c>
       <c r="T18" t="n">
-        <v>97.77524622210821</v>
+        <v>99.56246887069234</v>
       </c>
       <c r="U18" t="n">
-        <v>100</v>
+        <v>99.9903740007544</v>
       </c>
       <c r="V18" t="n">
-        <v>100</v>
+        <v>99.93593970768256</v>
       </c>
       <c r="W18" t="n">
-        <v>100</v>
+        <v>99.90675103633575</v>
       </c>
       <c r="X18" t="n">
-        <v>100</v>
+        <v>99.8853016056006</v>
       </c>
       <c r="Y18" t="n">
-        <v>100</v>
+        <v>99.8941985859591</v>
       </c>
       <c r="Z18" t="n">
-        <v>100</v>
+        <v>99.89053068287599</v>
       </c>
       <c r="AA18" t="n">
-        <v>99.09635108694795</v>
+        <v>99.93108289386068</v>
       </c>
       <c r="AB18" t="n">
-        <v>100</v>
+        <v>99.93915026431264</v>
       </c>
       <c r="AC18" t="n">
-        <v>100</v>
+        <v>99.94872256787356</v>
       </c>
       <c r="AD18" t="n">
-        <v>100</v>
+        <v>99.98004097796759</v>
       </c>
       <c r="AE18" t="n">
         <v>100</v>
@@ -2148,91 +2148,91 @@
         <v>100</v>
       </c>
       <c r="B19" t="n">
-        <v>98.58849778388826</v>
+        <v>98.13576310117169</v>
       </c>
       <c r="C19" t="n">
-        <v>96.74317404732504</v>
+        <v>93.75636334549672</v>
       </c>
       <c r="D19" t="n">
-        <v>92.42971290594116</v>
+        <v>90.31049143376565</v>
       </c>
       <c r="E19" t="n">
-        <v>84.40286217387909</v>
+        <v>87.71715775765729</v>
       </c>
       <c r="F19" t="n">
-        <v>83.97852763058641</v>
+        <v>86.65372251673651</v>
       </c>
       <c r="G19" t="n">
-        <v>91.10986601098202</v>
+        <v>86.25823141409018</v>
       </c>
       <c r="H19" t="n">
-        <v>92.02399024625782</v>
+        <v>86.52514684309649</v>
       </c>
       <c r="I19" t="n">
-        <v>96.03166461341995</v>
+        <v>88.95433953579752</v>
       </c>
       <c r="J19" t="n">
-        <v>88.814686605611</v>
+        <v>92.96172480236191</v>
       </c>
       <c r="K19" t="n">
-        <v>100</v>
+        <v>99.82959450707374</v>
       </c>
       <c r="L19" t="n">
-        <v>100</v>
+        <v>99.61762433141448</v>
       </c>
       <c r="M19" t="n">
-        <v>99.71152483213346</v>
+        <v>99.00860696912615</v>
       </c>
       <c r="N19" t="n">
-        <v>100</v>
+        <v>98.70608421320274</v>
       </c>
       <c r="O19" t="n">
-        <v>99.39556058428983</v>
+        <v>98.65271639172016</v>
       </c>
       <c r="P19" t="n">
-        <v>97.3774094838091</v>
+        <v>98.75115903384099</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.97126626863752</v>
+        <v>98.70260110421791</v>
       </c>
       <c r="R19" t="n">
-        <v>98.15342683968191</v>
+        <v>99.06691002687097</v>
       </c>
       <c r="S19" t="n">
-        <v>100</v>
+        <v>99.3257670542657</v>
       </c>
       <c r="T19" t="n">
-        <v>100</v>
+        <v>99.62410972358126</v>
       </c>
       <c r="U19" t="n">
-        <v>100</v>
+        <v>99.99190612062958</v>
       </c>
       <c r="V19" t="n">
-        <v>100</v>
+        <v>99.95142777337344</v>
       </c>
       <c r="W19" t="n">
-        <v>100</v>
+        <v>99.89019322044409</v>
       </c>
       <c r="X19" t="n">
-        <v>100</v>
+        <v>99.90694392191274</v>
       </c>
       <c r="Y19" t="n">
-        <v>100</v>
+        <v>99.91430947905437</v>
       </c>
       <c r="Z19" t="n">
-        <v>100</v>
+        <v>99.92351903446549</v>
       </c>
       <c r="AA19" t="n">
-        <v>100</v>
+        <v>99.90982745726023</v>
       </c>
       <c r="AB19" t="n">
-        <v>100</v>
+        <v>99.95116618030553</v>
       </c>
       <c r="AC19" t="n">
-        <v>100</v>
+        <v>99.9702791036465</v>
       </c>
       <c r="AD19" t="n">
-        <v>100</v>
+        <v>99.98147778439319</v>
       </c>
       <c r="AE19" t="n">
         <v>100</v>
@@ -2243,94 +2243,94 @@
         <v>100</v>
       </c>
       <c r="B20" t="n">
-        <v>98.12056965051815</v>
+        <v>98.19873584207163</v>
       </c>
       <c r="C20" t="n">
-        <v>93.92760333439543</v>
+        <v>94.14377300077888</v>
       </c>
       <c r="D20" t="n">
-        <v>87.99798863266288</v>
+        <v>90.5890174318187</v>
       </c>
       <c r="E20" t="n">
-        <v>87.24855977307104</v>
+        <v>88.05093958275387</v>
       </c>
       <c r="F20" t="n">
-        <v>88.5524753067467</v>
+        <v>86.44468273276115</v>
       </c>
       <c r="G20" t="n">
-        <v>89.45993128350726</v>
+        <v>86.13963303864696</v>
       </c>
       <c r="H20" t="n">
-        <v>94.66527089421876</v>
+        <v>86.91002735812351</v>
       </c>
       <c r="I20" t="n">
-        <v>87.21804121646014</v>
+        <v>88.80779146915594</v>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>93.15417140660199</v>
       </c>
       <c r="K20" t="n">
-        <v>100</v>
+        <v>99.77310634445431</v>
       </c>
       <c r="L20" t="n">
-        <v>99.19823052428585</v>
+        <v>99.59856125138043</v>
       </c>
       <c r="M20" t="n">
-        <v>98.07065088177369</v>
+        <v>99.04840399651003</v>
       </c>
       <c r="N20" t="n">
-        <v>99.82695271777237</v>
+        <v>98.80212510972365</v>
       </c>
       <c r="O20" t="n">
-        <v>100</v>
+        <v>98.54429505695597</v>
       </c>
       <c r="P20" t="n">
-        <v>99.02286391083297</v>
+        <v>98.70915258498161</v>
       </c>
       <c r="Q20" t="n">
-        <v>100</v>
+        <v>98.79395289502202</v>
       </c>
       <c r="R20" t="n">
-        <v>99.05140364146422</v>
+        <v>99.04598501537211</v>
       </c>
       <c r="S20" t="n">
-        <v>98.18475098450949</v>
+        <v>99.28804559591846</v>
       </c>
       <c r="T20" t="n">
-        <v>99.37436464693153</v>
+        <v>99.64295857758553</v>
       </c>
       <c r="U20" t="n">
-        <v>100</v>
+        <v>99.99606812499422</v>
       </c>
       <c r="V20" t="n">
-        <v>100</v>
+        <v>99.95429099390137</v>
       </c>
       <c r="W20" t="n">
-        <v>99.32329201866061</v>
+        <v>99.92542938155019</v>
       </c>
       <c r="X20" t="n">
-        <v>100</v>
+        <v>99.89851411262346</v>
       </c>
       <c r="Y20" t="n">
-        <v>100</v>
+        <v>99.90741503754212</v>
       </c>
       <c r="Z20" t="n">
-        <v>100</v>
+        <v>99.9376617608411</v>
       </c>
       <c r="AA20" t="n">
-        <v>100</v>
+        <v>99.94246757665938</v>
       </c>
       <c r="AB20" t="n">
-        <v>100</v>
+        <v>99.9498500890969</v>
       </c>
       <c r="AC20" t="n">
-        <v>100</v>
+        <v>99.97019926227082</v>
       </c>
       <c r="AD20" t="n">
-        <v>100</v>
+        <v>99.98665662349666</v>
       </c>
       <c r="AE20" t="n">
-        <v>100</v>
+        <v>99.99857126617171</v>
       </c>
     </row>
     <row r="21">
@@ -2338,94 +2338,94 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>95.82684627478319</v>
+        <v>96.28650084409796</v>
       </c>
       <c r="C21" t="n">
-        <v>89.23522259231312</v>
+        <v>92.25628374525043</v>
       </c>
       <c r="D21" t="n">
-        <v>94.04412534477022</v>
+        <v>89.41824296709278</v>
       </c>
       <c r="E21" t="n">
-        <v>86.73151622015787</v>
+        <v>87.45888263882802</v>
       </c>
       <c r="F21" t="n">
-        <v>85.22871487645156</v>
+        <v>86.06171396722101</v>
       </c>
       <c r="G21" t="n">
-        <v>82.59317097712973</v>
+        <v>85.92204966549237</v>
       </c>
       <c r="H21" t="n">
-        <v>85.80122141971025</v>
+        <v>86.88997071075171</v>
       </c>
       <c r="I21" t="n">
-        <v>92.51425044636883</v>
+        <v>89.15194705978345</v>
       </c>
       <c r="J21" t="n">
-        <v>95.12976264840141</v>
+        <v>93.34015861324562</v>
       </c>
       <c r="K21" t="n">
-        <v>100</v>
+        <v>99.85766330434916</v>
       </c>
       <c r="L21" t="n">
-        <v>98.73911080351073</v>
+        <v>99.30471665694579</v>
       </c>
       <c r="M21" t="n">
-        <v>99.29141525543012</v>
+        <v>98.88185429517277</v>
       </c>
       <c r="N21" t="n">
-        <v>100</v>
+        <v>98.71077737844506</v>
       </c>
       <c r="O21" t="n">
-        <v>100</v>
+        <v>98.73763535887113</v>
       </c>
       <c r="P21" t="n">
-        <v>99.12581572165871</v>
+        <v>98.80943013519808</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.12571491277087</v>
+        <v>98.83551297775077</v>
       </c>
       <c r="R21" t="n">
-        <v>99.38907772214745</v>
+        <v>99.17078553909467</v>
       </c>
       <c r="S21" t="n">
-        <v>99.14838980278121</v>
+        <v>99.35518493447105</v>
       </c>
       <c r="T21" t="n">
-        <v>100</v>
+        <v>99.60097436715971</v>
       </c>
       <c r="U21" t="n">
-        <v>100</v>
+        <v>99.99173451954623</v>
       </c>
       <c r="V21" t="n">
-        <v>99.33957335891215</v>
+        <v>99.93599592798648</v>
       </c>
       <c r="W21" t="n">
-        <v>100</v>
+        <v>99.91607340190292</v>
       </c>
       <c r="X21" t="n">
-        <v>100</v>
+        <v>99.91968380010441</v>
       </c>
       <c r="Y21" t="n">
-        <v>100</v>
+        <v>99.92117521695398</v>
       </c>
       <c r="Z21" t="n">
-        <v>100</v>
+        <v>99.91960505389169</v>
       </c>
       <c r="AA21" t="n">
-        <v>99.375937547511</v>
+        <v>99.94131177654081</v>
       </c>
       <c r="AB21" t="n">
-        <v>100</v>
+        <v>99.94777231759652</v>
       </c>
       <c r="AC21" t="n">
-        <v>100</v>
+        <v>99.96801532686807</v>
       </c>
       <c r="AD21" t="n">
-        <v>100</v>
+        <v>99.98876888118234</v>
       </c>
       <c r="AE21" t="n">
-        <v>100</v>
+        <v>99.99873070439553</v>
       </c>
     </row>
   </sheetData>
